--- a/medicine/Psychotrope/Sabeco_(brasserie)/Sabeco_(brasserie).xlsx
+++ b/medicine/Psychotrope/Sabeco_(brasserie)/Sabeco_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sabeco (également SABECO, Saigon Alcohol Beer and Beverages Corporation, vietnamien : Tổng Công ty Cổ phần Bia – Rượu – Nước giải khát Sài Gòn) est le premier producteur de bière du Viêt Nam[4]. 
+Sabeco (également SABECO, Saigon Alcohol Beer and Beverages Corporation, vietnamien : Tổng Công ty Cổ phần Bia – Rượu – Nước giải khát Sài Gòn) est le premier producteur de bière du Viêt Nam. 
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabeco était placée sous l'autorité du ministère vietnamien du Commerce et de l'Industrie mais est désormais une filiale de ThaiBev[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabeco était placée sous l'autorité du ministère vietnamien du Commerce et de l'Industrie mais est désormais une filiale de ThaiBev. 
 En 2011, Sabeco a produit 1,2 milliard de litres de bière, soit 51,4% du marché national. 
-Le ministère vietnamien du Commerce et de l'Industrie détenait près de 89,59 % de Sabeco en septembre 2012[6], ainsi qu'une majorité des actions du concurrent Habeco[4].
-La direction du ministère a annoncé en juillet 2012 qu'il n'avait pas encore l'intention de cesser de contrôler l'entreprise[7]. Nguyễn Bá Thi, ancien président du conseil d'administration qui a été licencié par le ministère en mai 2012[8] a déclaré que le ministère s'était trop ingéré dans l'entreprise.   
-Sabeco a fait son premier appel public à l'épargne en 2008[6]. 
-En septembre 2012, cinq sociétés internationales souhaitaient investir dans Sabeco[6]. Heineken, SAB Miller, Kirin et Asahi ont indiqué leur intérêt à devenir une partie prenante ou un partenaire stratégique[9],[10]. ThaiBev, basée à Bangkok, a acheté la majorité des actions de Sabeco en 2018 pour 4,8 milliards de dollars, mettant fin à la propriété nationale de Sabeco. Au moment de l'acquisition, la part de marché de Sabeco au Viêt Nam était tombée en dessous de 40 %[11].
+Le ministère vietnamien du Commerce et de l'Industrie détenait près de 89,59 % de Sabeco en septembre 2012, ainsi qu'une majorité des actions du concurrent Habeco.
+La direction du ministère a annoncé en juillet 2012 qu'il n'avait pas encore l'intention de cesser de contrôler l'entreprise. Nguyễn Bá Thi, ancien président du conseil d'administration qui a été licencié par le ministère en mai 2012 a déclaré que le ministère s'était trop ingéré dans l'entreprise.   
+Sabeco a fait son premier appel public à l'épargne en 2008. 
+En septembre 2012, cinq sociétés internationales souhaitaient investir dans Sabeco. Heineken, SAB Miller, Kirin et Asahi ont indiqué leur intérêt à devenir une partie prenante ou un partenaire stratégique,. ThaiBev, basée à Bangkok, a acheté la majorité des actions de Sabeco en 2018 pour 4,8 milliards de dollars, mettant fin à la propriété nationale de Sabeco. Au moment de l'acquisition, la part de marché de Sabeco au Viêt Nam était tombée en dessous de 40 %.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses principales marques sont Saigon Beer et 333 Beer. 
-Sabeco possède plusieurs filiales régionales à travers le Viêt Nam[12].
+Sabeco possède plusieurs filiales régionales à travers le Viêt Nam.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Part de marché et concurrence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La part de marché de Sabeco était de 51,4% en 2010[4]. Ses principaux concurrents sont Habeco (également détenu par le ministère de l'Industrie et du Commerce) (13,9 %) et Vietnam Brewery Limited (VBL, 29,7 %), une coentreprise de Asia Pacific Breweries de Singapour et de Saigon Trading Group (Satra), qui brasse et vend Heineken, Tiger Beer et Bière Larue au Vietnam.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La part de marché de Sabeco était de 51,4% en 2010. Ses principaux concurrents sont Habeco (également détenu par le ministère de l'Industrie et du Commerce) (13,9 %) et Vietnam Brewery Limited (VBL, 29,7 %), une coentreprise de Asia Pacific Breweries de Singapour et de Saigon Trading Group (Satra), qui brasse et vend Heineken, Tiger Beer et Bière Larue au Vietnam.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début 2020, les actionnaires de Sabeco sont[13] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début 2020, les actionnaires de Sabeco sont :
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Époque de la guerre du Vietnam</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ba Muoi BaBiere (33 Beer) est une marque locale qui était populaire parmi les soldats américains pendant la guerre des États-Unis au Vietnam. C'était le précurseur de la "333". "33" Biere Export est fabriquée par BGI Tien Giang. 
 </t>
